--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H2">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I2">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J2">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N2">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O2">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P2">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q2">
-        <v>2.582361696662552</v>
+        <v>6.062415864289999</v>
       </c>
       <c r="R2">
-        <v>2.582361696662552</v>
+        <v>36.37449518574</v>
       </c>
       <c r="S2">
-        <v>0.001353412076193413</v>
+        <v>0.002845467144334671</v>
       </c>
       <c r="T2">
-        <v>0.001353412076193413</v>
+        <v>0.002273089375661487</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H3">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I3">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J3">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N3">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O3">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P3">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q3">
-        <v>344.6849466467519</v>
+        <v>399.08908233255</v>
       </c>
       <c r="R3">
-        <v>344.6849466467519</v>
+        <v>3591.80174099295</v>
       </c>
       <c r="S3">
-        <v>0.180648888138599</v>
+        <v>0.1873172175681717</v>
       </c>
       <c r="T3">
-        <v>0.180648888138599</v>
+        <v>0.2244563487477416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H4">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I4">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J4">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N4">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O4">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P4">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q4">
-        <v>282.0361663388371</v>
+        <v>308.0020631072655</v>
       </c>
       <c r="R4">
-        <v>282.0361663388371</v>
+        <v>2772.01856796539</v>
       </c>
       <c r="S4">
-        <v>0.1478147518760057</v>
+        <v>0.1445644394211578</v>
       </c>
       <c r="T4">
-        <v>0.1478147518760057</v>
+        <v>0.1732270351465582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H5">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I5">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J5">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N5">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O5">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P5">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q5">
-        <v>282.2346840981232</v>
+        <v>313.6877740869378</v>
       </c>
       <c r="R5">
-        <v>282.2346840981232</v>
+        <v>2823.18996678244</v>
       </c>
       <c r="S5">
-        <v>0.1479187947500555</v>
+        <v>0.1472330956379209</v>
       </c>
       <c r="T5">
-        <v>0.1479187947500555</v>
+        <v>0.1764248022191958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H6">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I6">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J6">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N6">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O6">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P6">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q6">
-        <v>14.08164076538908</v>
+        <v>17.07104040453556</v>
       </c>
       <c r="R6">
-        <v>14.08164076538908</v>
+        <v>153.63936364082</v>
       </c>
       <c r="S6">
-        <v>0.007380167808841791</v>
+        <v>0.008012496284994539</v>
       </c>
       <c r="T6">
-        <v>0.007380167808841791</v>
+        <v>0.009601123077915641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H7">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I7">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J7">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N7">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O7">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P7">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q7">
-        <v>488.2389479670573</v>
+        <v>542.5838445357849</v>
       </c>
       <c r="R7">
-        <v>488.2389479670573</v>
+        <v>3255.50306721471</v>
       </c>
       <c r="S7">
-        <v>0.2558853351568011</v>
+        <v>0.2546681945340584</v>
       </c>
       <c r="T7">
-        <v>0.2558853351568011</v>
+        <v>0.2034406085014261</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H8">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I8">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J8">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N8">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O8">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P8">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q8">
-        <v>0.1161765851533122</v>
+        <v>0.05281186742800001</v>
       </c>
       <c r="R8">
-        <v>0.1161765851533122</v>
+        <v>0.3168712045680001</v>
       </c>
       <c r="S8">
-        <v>6.088798231503184E-05</v>
+        <v>2.478787944629592E-05</v>
       </c>
       <c r="T8">
-        <v>6.088798231503184E-05</v>
+        <v>1.98016925012598E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H9">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I9">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J9">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N9">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O9">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P9">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q9">
-        <v>15.50685951813976</v>
+        <v>3.476607375660001</v>
       </c>
       <c r="R9">
-        <v>15.50685951813976</v>
+        <v>31.28946638094001</v>
       </c>
       <c r="S9">
-        <v>0.008127122921165138</v>
+        <v>0.001631787109733471</v>
       </c>
       <c r="T9">
-        <v>0.008127122921165138</v>
+        <v>0.001955319331236103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H10">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I10">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J10">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N10">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O10">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P10">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q10">
-        <v>12.68838472059296</v>
+        <v>2.683115854883111</v>
       </c>
       <c r="R10">
-        <v>12.68838472059296</v>
+        <v>24.148042693948</v>
       </c>
       <c r="S10">
-        <v>0.006649964306097166</v>
+        <v>0.00125935240676655</v>
       </c>
       <c r="T10">
-        <v>0.006649964306097166</v>
+        <v>0.001509042503829775</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H11">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I11">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J11">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N11">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O11">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P11">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q11">
-        <v>12.69731573726501</v>
+        <v>2.732646111667556</v>
       </c>
       <c r="R11">
-        <v>12.69731573726501</v>
+        <v>24.593815005008</v>
       </c>
       <c r="S11">
-        <v>0.006654645039176604</v>
+        <v>0.001282600023143508</v>
       </c>
       <c r="T11">
-        <v>0.006654645039176604</v>
+        <v>0.001536899393638428</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H12">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I12">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J12">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N12">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O12">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P12">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q12">
-        <v>0.6335119280900464</v>
+        <v>0.1487119232471112</v>
       </c>
       <c r="R12">
-        <v>0.6335119280900464</v>
+        <v>1.338407309224</v>
       </c>
       <c r="S12">
-        <v>0.0003320226965098461</v>
+        <v>6.979971368559883E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003320226965098461</v>
+        <v>8.363880843898123E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H13">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I13">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J13">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N13">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O13">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P13">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q13">
-        <v>21.96513903802318</v>
+        <v>4.726641442562001</v>
       </c>
       <c r="R13">
-        <v>21.96513903802318</v>
+        <v>28.35984865537201</v>
       </c>
       <c r="S13">
-        <v>0.01151189799157426</v>
+        <v>0.002218505498292131</v>
       </c>
       <c r="T13">
-        <v>0.01151189799157426</v>
+        <v>0.001772243720351781</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H14">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I14">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J14">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N14">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O14">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P14">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q14">
-        <v>0.1491449487521796</v>
+        <v>0.251628108158</v>
       </c>
       <c r="R14">
-        <v>0.1491449487521796</v>
+        <v>1.509768648948</v>
       </c>
       <c r="S14">
-        <v>7.816665458031103E-05</v>
+        <v>0.0001181046517399437</v>
       </c>
       <c r="T14">
-        <v>7.816665458031103E-05</v>
+        <v>9.434740078470943E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H15">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I15">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J15">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N15">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O15">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P15">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q15">
-        <v>19.90736571477085</v>
+        <v>16.56468857001</v>
       </c>
       <c r="R15">
-        <v>19.90736571477085</v>
+        <v>149.08219713009</v>
       </c>
       <c r="S15">
-        <v>0.01043342193248552</v>
+        <v>0.00777483401621107</v>
       </c>
       <c r="T15">
-        <v>0.01043342193248552</v>
+        <v>0.009316339832793884</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H16">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I16">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J16">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N16">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O16">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P16">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q16">
-        <v>16.28906966411056</v>
+        <v>12.78400858393089</v>
       </c>
       <c r="R16">
-        <v>16.28906966411056</v>
+        <v>115.056077255378</v>
       </c>
       <c r="S16">
-        <v>0.008537078141243758</v>
+        <v>0.006000326802511095</v>
       </c>
       <c r="T16">
-        <v>0.008537078141243758</v>
+        <v>0.007190003475760026</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H17">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I17">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J17">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N17">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O17">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P17">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q17">
-        <v>16.30053510718673</v>
+        <v>13.02000108747644</v>
       </c>
       <c r="R17">
-        <v>16.30053510718673</v>
+        <v>117.180009787288</v>
       </c>
       <c r="S17">
-        <v>0.008543087163581039</v>
+        <v>0.006111092696864139</v>
       </c>
       <c r="T17">
-        <v>0.008543087163581039</v>
+        <v>0.007322730774056639</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H18">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I18">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J18">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N18">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O18">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P18">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q18">
-        <v>0.8132887011973833</v>
+        <v>0.7085547572848889</v>
       </c>
       <c r="R18">
-        <v>0.8132887011973833</v>
+        <v>6.376992815564001</v>
       </c>
       <c r="S18">
-        <v>0.0004262434464756661</v>
+        <v>0.000332568620653724</v>
       </c>
       <c r="T18">
-        <v>0.0004262434464756661</v>
+        <v>0.0003985065509145777</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H19">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I19">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J19">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N19">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O19">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P19">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q19">
-        <v>28.19836313692053</v>
+        <v>22.520617089607</v>
       </c>
       <c r="R19">
-        <v>28.19836313692053</v>
+        <v>135.123702537642</v>
       </c>
       <c r="S19">
-        <v>0.01477872183734704</v>
+        <v>0.01057032005608272</v>
       </c>
       <c r="T19">
-        <v>0.01477872183734704</v>
+        <v>0.008444055403929545</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H20">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I20">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J20">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N20">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O20">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P20">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q20">
-        <v>0.6372789727220102</v>
+        <v>0.38901311054</v>
       </c>
       <c r="R20">
-        <v>0.6372789727220102</v>
+        <v>2.33407866324</v>
       </c>
       <c r="S20">
-        <v>0.0003339969992200545</v>
+        <v>0.0001825879401110071</v>
       </c>
       <c r="T20">
-        <v>0.0003339969992200545</v>
+        <v>0.0001458596025670472</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H21">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I21">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J21">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N21">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O21">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P21">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q21">
-        <v>85.06185210060714</v>
+        <v>25.60874885130001</v>
       </c>
       <c r="R21">
-        <v>85.06185210060714</v>
+        <v>230.4787396617</v>
       </c>
       <c r="S21">
-        <v>0.0445807951709963</v>
+        <v>0.01201977150612819</v>
       </c>
       <c r="T21">
-        <v>0.0445807951709963</v>
+        <v>0.01440291533300084</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H22">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I22">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J22">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N22">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O22">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P22">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q22">
-        <v>69.60129504211542</v>
+        <v>19.76387686101556</v>
       </c>
       <c r="R22">
-        <v>69.60129504211542</v>
+        <v>177.87489174914</v>
       </c>
       <c r="S22">
-        <v>0.03647793930278743</v>
+        <v>0.009276411171981235</v>
       </c>
       <c r="T22">
-        <v>0.03647793930278743</v>
+        <v>0.01111563265874316</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H23">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I23">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J23">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N23">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O23">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P23">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q23">
-        <v>69.65028554327895</v>
+        <v>20.12871757193778</v>
       </c>
       <c r="R23">
-        <v>69.65028554327895</v>
+        <v>181.15845814744</v>
       </c>
       <c r="S23">
-        <v>0.03650361515446195</v>
+        <v>0.009447653508218832</v>
       </c>
       <c r="T23">
-        <v>0.03650361515446195</v>
+        <v>0.01132082698119745</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H24">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I24">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J24">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N24">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O24">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P24">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q24">
-        <v>3.475087774421941</v>
+        <v>1.095414547035556</v>
       </c>
       <c r="R24">
-        <v>3.475087774421941</v>
+        <v>9.858730923320001</v>
       </c>
       <c r="S24">
-        <v>0.001821288538245127</v>
+        <v>0.0005141458739866511</v>
       </c>
       <c r="T24">
-        <v>0.001821288538245127</v>
+        <v>0.0006160848804876177</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.58338</v>
+      </c>
+      <c r="I25">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J25">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>40.4313585</v>
+      </c>
+      <c r="N25">
+        <v>80.862717</v>
+      </c>
+      <c r="O25">
+        <v>0.3420013471084464</v>
+      </c>
+      <c r="P25">
+        <v>0.2577079799800835</v>
+      </c>
+      <c r="Q25">
+        <v>34.81652097391</v>
+      </c>
+      <c r="R25">
+        <v>208.89912584346</v>
+      </c>
+      <c r="S25">
+        <v>0.01634154910006366</v>
+      </c>
+      <c r="T25">
+        <v>0.01305437728042742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.0670265</v>
+      </c>
+      <c r="H26">
+        <v>6.134053</v>
+      </c>
+      <c r="I26">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J26">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.451749</v>
+      </c>
+      <c r="N26">
+        <v>0.903498</v>
+      </c>
+      <c r="O26">
+        <v>0.003821260830374857</v>
+      </c>
+      <c r="P26">
+        <v>0.00287943137621811</v>
+      </c>
+      <c r="Q26">
+        <v>1.3855261543485</v>
+      </c>
+      <c r="R26">
+        <v>5.542104617394</v>
+      </c>
+      <c r="S26">
+        <v>0.0006503132147429395</v>
+      </c>
+      <c r="T26">
+        <v>0.0003463333047036068</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.0670265</v>
+      </c>
+      <c r="H27">
+        <v>6.134053</v>
+      </c>
+      <c r="I27">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J27">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>29.738655</v>
+      </c>
+      <c r="N27">
+        <v>89.21596500000001</v>
+      </c>
+      <c r="O27">
+        <v>0.2515537555136401</v>
+      </c>
+      <c r="P27">
+        <v>0.2843296264967678</v>
+      </c>
+      <c r="Q27">
+        <v>91.20924295935751</v>
+      </c>
+      <c r="R27">
+        <v>547.255457756145</v>
+      </c>
+      <c r="S27">
+        <v>0.0428101453133957</v>
+      </c>
+      <c r="T27">
+        <v>0.03419870325199538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.0670265</v>
+      </c>
+      <c r="H28">
+        <v>6.134053</v>
+      </c>
+      <c r="I28">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J28">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>22.95118433333333</v>
+      </c>
+      <c r="N28">
+        <v>68.85355300000001</v>
+      </c>
+      <c r="O28">
+        <v>0.194139802641909</v>
+      </c>
+      <c r="P28">
+        <v>0.2194349969477482</v>
+      </c>
+      <c r="Q28">
+        <v>70.39189055671817</v>
+      </c>
+      <c r="R28">
+        <v>422.351343340309</v>
+      </c>
+      <c r="S28">
+        <v>0.03303927283949225</v>
+      </c>
+      <c r="T28">
+        <v>0.02639328316285696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.0670265</v>
+      </c>
+      <c r="H29">
+        <v>6.134053</v>
+      </c>
+      <c r="I29">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J29">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>23.37486266666667</v>
+      </c>
+      <c r="N29">
+        <v>70.124588</v>
+      </c>
+      <c r="O29">
+        <v>0.1977236189200749</v>
+      </c>
+      <c r="P29">
+        <v>0.2234857619292659</v>
+      </c>
+      <c r="Q29">
+        <v>71.69132323252734</v>
+      </c>
+      <c r="R29">
+        <v>430.147939395164</v>
+      </c>
+      <c r="S29">
+        <v>0.03364917705392756</v>
+      </c>
+      <c r="T29">
+        <v>0.02688050256117765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="H25">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="I25">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="J25">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>39.5464332042761</v>
-      </c>
-      <c r="N25">
-        <v>39.5464332042761</v>
-      </c>
-      <c r="O25">
-        <v>0.3453237099009637</v>
-      </c>
-      <c r="P25">
-        <v>0.3453237099009637</v>
-      </c>
-      <c r="Q25">
-        <v>120.488317188659</v>
-      </c>
-      <c r="R25">
-        <v>120.488317188659</v>
-      </c>
-      <c r="S25">
-        <v>0.06314775491524129</v>
-      </c>
-      <c r="T25">
-        <v>0.06314775491524129</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.0670265</v>
+      </c>
+      <c r="H30">
+        <v>6.134053</v>
+      </c>
+      <c r="I30">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J30">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.272071333333334</v>
+      </c>
+      <c r="N30">
+        <v>3.816214</v>
+      </c>
+      <c r="O30">
+        <v>0.01076021498555478</v>
+      </c>
+      <c r="P30">
+        <v>0.01216220326991628</v>
+      </c>
+      <c r="Q30">
+        <v>3.901476489223667</v>
+      </c>
+      <c r="R30">
+        <v>23.408858935342</v>
+      </c>
+      <c r="S30">
+        <v>0.001831204492234266</v>
+      </c>
+      <c r="T30">
+        <v>0.001462849952159463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.0670265</v>
+      </c>
+      <c r="H31">
+        <v>6.134053</v>
+      </c>
+      <c r="I31">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J31">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>40.4313585</v>
+      </c>
+      <c r="N31">
+        <v>80.862717</v>
+      </c>
+      <c r="O31">
+        <v>0.3420013471084464</v>
+      </c>
+      <c r="P31">
+        <v>0.2577079799800835</v>
+      </c>
+      <c r="Q31">
+        <v>124.0040479505003</v>
+      </c>
+      <c r="R31">
+        <v>496.016191802001</v>
+      </c>
+      <c r="S31">
+        <v>0.05820277791994951</v>
+      </c>
+      <c r="T31">
+        <v>0.03099669507394873</v>
       </c>
     </row>
   </sheetData>
